--- a/data/extracted_data/raw/Roder_etal_2011_Tables1_2.xlsx
+++ b/data/extracted_data/raw/Roder_etal_2011_Tables1_2.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C9E0FB-8158-A446-8C56-8B81978F317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2234619-2804-D742-9770-F60FD9A7BE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="8200" windowWidth="23240" windowHeight="11440" xr2:uid="{E7B6CCEF-755F-544D-9FF0-30D9A03C3796}"/>
+    <workbookView xWindow="6380" yWindow="500" windowWidth="27920" windowHeight="18140" xr2:uid="{E7B6CCEF-755F-544D-9FF0-30D9A03C3796}"/>
   </bookViews>
   <sheets>
-    <sheet name="Roder_etal_2011_Tables1_2" sheetId="1" r:id="rId1"/>
+    <sheet name="Long" sheetId="2" r:id="rId1"/>
+    <sheet name="Wide" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="13">
   <si>
     <t>species</t>
   </si>
@@ -52,17 +66,20 @@
     <t>C. gigas</t>
   </si>
   <si>
-    <t>n.d</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>n.d.</t>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +210,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -915,14 +938,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E50D8C-15B6-8644-8140-E7A401D1EB6C}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAD5DD-A0F0-D34F-AACB-1A11A7B59A51}">
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,6 +955,3172 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>22.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>33.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>48.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>26</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>30.279999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>37.139999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>48.600000000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>39.52000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>133.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>105.48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>205.11999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>153.97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>197.52999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>30</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>120.37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>126.28999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>77.69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>22.84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>33.93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>34</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>36</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>48.27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>32</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>60.84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>26</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157">
+        <v>28</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <v>32</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160">
+        <v>34</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <v>36</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>30</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>32</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>34</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>36</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>24</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>26</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>34</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193">
+        <v>36</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>16</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>26</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206">
+        <v>30</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207">
+        <v>32</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>36</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210">
+        <v>86.34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211">
+        <v>127.16000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212">
+        <v>76.070000000000007</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213">
+        <v>130.57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>407.55999999999995</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>202.88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216">
+        <v>14</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216">
+        <v>98.419999999999987</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217">
+        <v>504.55000000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>22</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218">
+        <v>71.169999999999987</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219">
+        <v>109.57000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220">
+        <v>26</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220">
+        <v>131.89000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>183.82999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <v>30</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>64.350000000000009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223">
+        <v>32</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>144.94</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>34</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224">
+        <v>197.36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <v>36</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225">
+        <v>2.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E50D8C-15B6-8644-8140-E7A401D1EB6C}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -947,8 +4138,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -973,8 +4167,12 @@
       <c r="H2">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>SUM(C2:H2)</f>
+        <v>30.279999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -999,8 +4197,12 @@
       <c r="H3">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I33" si="0">SUM(C3:H3)</f>
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +4227,12 @@
       <c r="H4">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>37.139999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +4257,12 @@
       <c r="H5">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +4287,12 @@
       <c r="H6">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>48.600000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1103,8 +4317,12 @@
       <c r="H7">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1129,8 +4347,12 @@
       <c r="H8">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>39.52000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1155,8 +4377,12 @@
       <c r="H9">
         <v>13.63</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>133.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1181,8 +4407,12 @@
       <c r="H10">
         <v>11.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>105.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +4437,12 @@
       <c r="H11">
         <v>14.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>205.11999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1233,8 +4467,12 @@
       <c r="H12">
         <v>14.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>153.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1259,8 +4497,12 @@
       <c r="H13">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>197.52999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1285,8 +4527,12 @@
       <c r="H14">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>120.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1311,8 +4557,12 @@
       <c r="H15">
         <v>13.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>126.28999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1337,8 +4587,12 @@
       <c r="H16">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>77.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1363,8 +4617,12 @@
       <c r="H17">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1386,8 +4644,12 @@
       <c r="H18">
         <v>4.0599999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>86.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1409,8 +4671,12 @@
       <c r="H19">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>127.16000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1432,8 +4698,12 @@
       <c r="H20">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>76.070000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1458,8 +4728,12 @@
       <c r="H21">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>130.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1484,8 +4758,12 @@
       <c r="H22">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>407.55999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1510,8 +4788,12 @@
       <c r="H23">
         <v>8.48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>202.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1536,8 +4818,12 @@
       <c r="H24">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>98.419999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1562,8 +4848,12 @@
       <c r="H25">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>504.55000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1588,8 +4878,12 @@
       <c r="H26">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>71.169999999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +4908,12 @@
       <c r="H27">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>109.57000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1640,8 +4938,12 @@
       <c r="H28">
         <v>9.16</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>131.89000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1666,8 +4968,12 @@
       <c r="H29">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>183.82999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1680,8 +4986,8 @@
       <c r="D30">
         <v>9.61</v>
       </c>
-      <c r="E30" t="s">
-        <v>10</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>1.7</v>
@@ -1692,8 +4998,12 @@
       <c r="H30">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>64.350000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1715,8 +5025,12 @@
       <c r="H31">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>144.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1741,8 +5055,12 @@
       <c r="H32">
         <v>7.22</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>197.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1752,20 +5070,24 @@
       <c r="C33">
         <v>2.89</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>2.89</v>
       </c>
     </row>
   </sheetData>
